--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl2-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl2-Cxcr2.xlsx
@@ -534,28 +534,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>832.4576029999999</v>
+        <v>0.1716463333333333</v>
       </c>
       <c r="H2">
-        <v>2497.372809</v>
+        <v>0.514939</v>
       </c>
       <c r="I2">
-        <v>0.9962548015050657</v>
+        <v>0.07772289907851986</v>
       </c>
       <c r="J2">
-        <v>0.9962548015050658</v>
+        <v>0.07772289907851984</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>113.4026386666667</v>
+        <v>0.03970866666666666</v>
       </c>
       <c r="N2">
-        <v>340.207916</v>
+        <v>0.119126</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>94402.88875832845</v>
+        <v>0.006815847034888889</v>
       </c>
       <c r="R2">
-        <v>849625.998824956</v>
+        <v>0.06134262331400001</v>
       </c>
       <c r="S2">
-        <v>0.9962548015050657</v>
+        <v>0.07772289907851986</v>
       </c>
       <c r="T2">
-        <v>0.9962548015050658</v>
+        <v>0.07772289907851984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>4.322777</v>
       </c>
       <c r="I3">
-        <v>0.001724447117613213</v>
+        <v>0.652463224789629</v>
       </c>
       <c r="J3">
-        <v>0.001724447117613213</v>
+        <v>0.652463224789629</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>113.4026386666667</v>
+        <v>0.03970866666666666</v>
       </c>
       <c r="N3">
-        <v>340.207916</v>
+        <v>0.119126</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>163.4047727225258</v>
+        <v>0.05721723698911111</v>
       </c>
       <c r="R3">
-        <v>1470.642954502732</v>
+        <v>0.514955132902</v>
       </c>
       <c r="S3">
-        <v>0.001724447117613213</v>
+        <v>0.652463224789629</v>
       </c>
       <c r="T3">
-        <v>0.001724447117613213</v>
+        <v>0.652463224789629</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,28 +658,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.688513666666666</v>
+        <v>0.5958676666666666</v>
       </c>
       <c r="H4">
-        <v>5.065541</v>
+        <v>1.787603</v>
       </c>
       <c r="I4">
-        <v>0.002020751377321003</v>
+        <v>0.2698138761318511</v>
       </c>
       <c r="J4">
-        <v>0.002020751377321003</v>
+        <v>0.2698138761318511</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>113.4026386666667</v>
+        <v>0.03970866666666666</v>
       </c>
       <c r="N4">
-        <v>340.207916</v>
+        <v>0.119126</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>191.4819052247285</v>
+        <v>0.0236611105531111</v>
       </c>
       <c r="R4">
-        <v>1723.337147022556</v>
+        <v>0.212949994978</v>
       </c>
       <c r="S4">
-        <v>0.002020751377321003</v>
+        <v>0.2698138761318511</v>
       </c>
       <c r="T4">
-        <v>0.002020751377321003</v>
+        <v>0.2698138761318511</v>
       </c>
     </row>
   </sheetData>
